--- a/SES 2010 codebook.xlsx
+++ b/SES 2010 codebook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/what is ses/Flexibility_SES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/y_cai2_uu_nl/Documents/4_2_2_Formal reproduction/From github 230221/Flexibility_SES/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2693B2FD62E877279B5772EB7EC1A43DFA367DF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F20604-13E8-4A39-B4A6-5C9DB870243D}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="620" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="OLE_LINK18" localSheetId="0">工作表1!$E$56</definedName>
     <definedName name="OLE_LINK3" localSheetId="0">工作表1!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1606,284 +1607,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Does the village have mineral resource?</t>
+  </si>
+  <si>
+    <t>Dose your village experience frequent natural disasters?</t>
+  </si>
+  <si>
+    <t>Per capita arable land (mu/person)</t>
+  </si>
+  <si>
+    <t>Per capita mountainous land (mu/person)</t>
+  </si>
+  <si>
+    <t>Per capita forest (mu/person)</t>
+  </si>
+  <si>
+    <t>Per capita water surface (mu/person)</t>
+  </si>
+  <si>
+    <t>Per capita pasture (mu/person)</t>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exact number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cz1</t>
+  </si>
+  <si>
+    <t>cz2</t>
+  </si>
+  <si>
+    <t>cz3</t>
+  </si>
+  <si>
+    <t>cz4</t>
+  </si>
+  <si>
+    <t>cz5</t>
+  </si>
+  <si>
+    <t>cz6</t>
+  </si>
+  <si>
+    <t>cz7</t>
+  </si>
+  <si>
+    <t>cz701</t>
+  </si>
+  <si>
+    <t>cz702</t>
+  </si>
+  <si>
+    <t>cz703</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Economic condition</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Cleanlines of the roads</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Outlook of local people</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Socioeconomic homogeneity</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Architectural layout</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Spaciousness of the buildings</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Community type</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Detailed city type</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Detailed town type</t>
+  </si>
+  <si>
+    <t>Interviewer Observation: Detailed village type</t>
+  </si>
+  <si>
+    <t>1 = "Shantytown" 2 = "Old urban neighborhood without renewal (Neighborhood Community)" 3 = "Residential area of the work unit of an industrial/mining enterprise" 4 = "Residential area of the work unit of a government/public institution" 5 = "Economical housing community" 6 = "Ordinary commercial housing community" 7 = "Community of price- and size-controlled housing" 8 = "High-quality and high-class commercial housing/ villa area" 9 = "Urban residential area newly transformed from village" 10 = "Migrant community" 77 = "Other [Please specify]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1—10, 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = "Downtown business district" 2 = "Residential district" 3 = "Old industrial district" 4 = "Newly developed district on the periphery of the city/township" 5 = "Agricultural area on the periphery of the city/township" 77 = "Other [Please specify]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = "Hill" 2 = "Mountainous area" 3 = "Plateau" 4 = "Plain"  5 = "Prairie" 6 = "Fishing village" 77 = "Other [Please specify]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1—6, 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = "Urban" 2 = "Town" 3 = "Rural village" 4 = "Suburb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1—4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very bad 1-------7 very good</t>
+  </si>
+  <si>
+    <t>very bad 1-------7 very good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1000000015-200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1000000015-314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1000000015-400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1000000015-70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1000000015-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500-40000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500-35000 </t>
+  </si>
+  <si>
+    <t>exact number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>households last year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persons last year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persons with local household registration last year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular residents last year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating population last year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>households eligible for the MLSS system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>households supported by the MLSS system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0-904 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1000 </t>
+  </si>
+  <si>
+    <t>Environment observation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1—5, 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family questionnaire (family)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>county questionnaire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Child's place of house registration same as birthplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housing environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very unsatisfied 1----5 very satisfied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not confident at al 1----5 very confident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>very unhappy 1----5 very happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=illiterate 2=primary 3=junior high 4=senior high 5=3-year college 6=4-year college 7=master 8=doctoral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=Illiterate 2=Adult primary school/Literacy class 3=Ordinary primary school 4=Adult junior high school 5=Vocational junior high school 6=Ordinary junior high school 7=Ordinary specialized high school/Vocational high school/Technical high school 8=Adult senior high school 9=Specialized adult high school 10=Ordinary senior high school 11=3-year adult college 12=Ordinary 3-year college 13=4-year adult college 14=Ordinary 4-year college 15=Master’s degree 16=Doctoral degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cg5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Does the village have mineral resource?</t>
-  </si>
-  <si>
-    <t>Dose your village experience frequent natural disasters?</t>
-  </si>
-  <si>
-    <t>Per capita arable land (mu/person)</t>
-  </si>
-  <si>
-    <t>Per capita mountainous land (mu/person)</t>
-  </si>
-  <si>
-    <t>Per capita forest (mu/person)</t>
-  </si>
-  <si>
-    <t>Per capita water surface (mu/person)</t>
-  </si>
-  <si>
-    <t>Per capita pasture (mu/person)</t>
-  </si>
-  <si>
-    <t>1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>continous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exact number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cz1</t>
-  </si>
-  <si>
-    <t>cz2</t>
-  </si>
-  <si>
-    <t>cz3</t>
-  </si>
-  <si>
-    <t>cz4</t>
-  </si>
-  <si>
-    <t>cz5</t>
-  </si>
-  <si>
-    <t>cz6</t>
-  </si>
-  <si>
-    <t>cz7</t>
-  </si>
-  <si>
-    <t>cz701</t>
-  </si>
-  <si>
-    <t>cz702</t>
-  </si>
-  <si>
-    <t>cz703</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Economic condition</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Cleanlines of the roads</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Outlook of local people</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Socioeconomic homogeneity</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Architectural layout</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Spaciousness of the buildings</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Community type</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Detailed city type</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Detailed town type</t>
-  </si>
-  <si>
-    <t>Interviewer Observation: Detailed village type</t>
-  </si>
-  <si>
-    <t>1 = "Shantytown" 2 = "Old urban neighborhood without renewal (Neighborhood Community)" 3 = "Residential area of the work unit of an industrial/mining enterprise" 4 = "Residential area of the work unit of a government/public institution" 5 = "Economical housing community" 6 = "Ordinary commercial housing community" 7 = "Community of price- and size-controlled housing" 8 = "High-quality and high-class commercial housing/ villa area" 9 = "Urban residential area newly transformed from village" 10 = "Migrant community" 77 = "Other [Please specify]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1—10, 77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = "Downtown business district" 2 = "Residential district" 3 = "Old industrial district" 4 = "Newly developed district on the periphery of the city/township" 5 = "Agricultural area on the periphery of the city/township" 77 = "Other [Please specify]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = "Hill" 2 = "Mountainous area" 3 = "Plateau" 4 = "Plain"  5 = "Prairie" 6 = "Fishing village" 77 = "Other [Please specify]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1—6, 77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 = "Urban" 2 = "Town" 3 = "Rural village" 4 = "Suburb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1—4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>very bad 1-------7 very good</t>
-  </si>
-  <si>
-    <t>very bad 1-------7 very good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordinal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1000000015-200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1000000015-314 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1000000015-400 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1000000015-70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1000000015-30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">500-40000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">500-35000 </t>
-  </si>
-  <si>
-    <t>exact number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>households last year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>persons last year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>persons with local household registration last year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regular residents last year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floating population last year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>households eligible for the MLSS system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>households supported by the MLSS system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0-904 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1000 </t>
-  </si>
-  <si>
-    <t>Environment observation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>community id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1—5, 77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Family questionnaire (family)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>county questionnaire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Child's place of house registration same as birthplace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>housing environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>very unsatisfied 1----5 very satisfied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not confident at al 1----5 very confident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>very unhappy 1----5 very happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=illiterate 2=primary 3=junior high 4=senior high 5=3-year college 6=4-year college 7=master 8=doctoral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=Illiterate 2=Adult primary school/Literacy class 3=Ordinary primary school 4=Adult junior high school 5=Vocational junior high school 6=Ordinary junior high school 7=Ordinary specialized high school/Vocational high school/Technical high school 8=Adult senior high school 9=Specialized adult high school 10=Ordinary senior high school 11=3-year adult college 12=Ordinary 3-year college 13=4-year adult college 14=Ordinary 4-year college 15=Master’s degree 16=Doctoral degree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1897,7 +1897,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1906,7 +1906,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1998,13 +1998,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2014,7 +2014,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2026,32 +2026,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2319,14 +2322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -2337,7 +2340,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>280</v>
@@ -2361,31 +2364,31 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>410</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>426</v>
@@ -2407,14 +2410,14 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="8" t="s">
         <v>415</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>420</v>
@@ -2427,14 +2430,14 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="8" t="s">
         <v>416</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>421</v>
@@ -2447,14 +2450,14 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="8" t="s">
         <v>417</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>422</v>
@@ -2467,14 +2470,14 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="8" t="s">
         <v>418</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>424</v>
@@ -2487,14 +2490,14 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
         <v>419</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>423</v>
@@ -2507,7 +2510,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>425</v>
@@ -2516,10 +2519,10 @@
         <v>427</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>414</v>
@@ -2529,17 +2532,17 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="8" t="s">
         <v>428</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>508</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>414</v>
@@ -2549,7 +2552,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="8" t="s">
@@ -2559,7 +2562,7 @@
         <v>430</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>414</v>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>433</v>
@@ -2591,7 +2594,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="8" t="s">
@@ -2611,14 +2614,14 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="8" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>436</v>
@@ -2631,7 +2634,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>441</v>
@@ -2643,17 +2646,17 @@
         <v>442</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>414</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="8" t="s">
@@ -2663,17 +2666,17 @@
         <v>443</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>414</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="8" t="s">
@@ -2683,17 +2686,17 @@
         <v>444</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>414</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>451</v>
@@ -2702,10 +2705,10 @@
         <v>445</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>384</v>
@@ -2715,276 +2718,276 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="8" t="s">
         <v>446</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="8" t="s">
         <v>447</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="8" t="s">
         <v>448</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="8" t="s">
         <v>449</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="8" t="s">
         <v>450</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>462</v>
-      </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>377</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>377</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>377</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>315</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>315</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>322</v>
@@ -2993,31 +2996,31 @@
         <v>315</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>315</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
         <v>86</v>
       </c>
@@ -3031,17 +3034,17 @@
         <v>329</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="5" t="s">
@@ -3051,17 +3054,17 @@
         <v>396</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="5" t="s">
@@ -3071,17 +3074,17 @@
         <v>410</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="19"/>
       <c r="B37" s="19" t="s">
         <v>0</v>
@@ -3099,11 +3102,11 @@
         <v>281</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="12" t="s">
@@ -3119,11 +3122,11 @@
         <v>281</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="6" t="s">
@@ -3143,7 +3146,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>11</v>
@@ -3165,7 +3168,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="6" t="s">
@@ -3185,7 +3188,7 @@
       </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="6" t="s">
@@ -3205,7 +3208,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="6" t="s">
@@ -3225,7 +3228,7 @@
       </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="6" t="s">
@@ -3245,7 +3248,7 @@
       </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="6" t="s">
@@ -3265,7 +3268,7 @@
       </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="6" t="s">
@@ -3285,7 +3288,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="6" t="s">
@@ -3305,7 +3308,7 @@
       </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="6" t="s">
@@ -3325,7 +3328,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="6" t="s">
@@ -3345,7 +3348,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="6" t="s">
@@ -3365,7 +3368,7 @@
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="6" t="s">
@@ -3385,7 +3388,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="6" t="s">
@@ -3405,7 +3408,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="6" t="s">
@@ -3425,7 +3428,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="6" t="s">
@@ -3445,7 +3448,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="19"/>
       <c r="B55" s="19" t="s">
         <v>52</v>
@@ -3469,7 +3472,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="3" t="s">
@@ -3491,7 +3494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="3" t="s">
@@ -3513,7 +3516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="3" t="s">
@@ -3535,7 +3538,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="3" t="s">
@@ -3557,7 +3560,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="19"/>
       <c r="B60" s="19" t="s">
         <v>77</v>
@@ -3579,7 +3582,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="12" t="s">
@@ -3599,7 +3602,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="19"/>
       <c r="B62" s="19" t="s">
         <v>343</v>
@@ -3621,7 +3624,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="18" t="s">
@@ -3641,7 +3644,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="18" t="s">
@@ -3661,7 +3664,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="18" t="s">
@@ -3681,7 +3684,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="18" t="s">
@@ -3701,7 +3704,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="18" t="s">
@@ -3721,7 +3724,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="18" t="s">
@@ -3737,11 +3740,11 @@
         <v>287</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="18" t="s">
@@ -3757,11 +3760,11 @@
         <v>287</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="18" t="s">
@@ -3777,11 +3780,11 @@
         <v>287</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="15" customHeight="1">
       <c r="A71" s="19"/>
       <c r="B71" s="19" t="s">
         <v>359</v>
@@ -3803,7 +3806,7 @@
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="12" t="s">
@@ -3823,9 +3826,9 @@
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>85</v>
@@ -3849,7 +3852,7 @@
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="10" t="s">
@@ -3871,7 +3874,7 @@
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="10" t="s">
@@ -3893,7 +3896,7 @@
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="10" t="s">
@@ -3915,7 +3918,7 @@
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="10" t="s">
@@ -3937,7 +3940,7 @@
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="10" t="s">
@@ -3959,7 +3962,7 @@
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="10" t="s">
@@ -3981,7 +3984,7 @@
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="10" t="s">
@@ -4003,7 +4006,7 @@
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="10" t="s">
@@ -4025,7 +4028,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="10" t="s">
@@ -4047,7 +4050,7 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="10" t="s">
@@ -4069,7 +4072,7 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="10" t="s">
@@ -4091,7 +4094,7 @@
       <c r="I84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="10" t="s">
@@ -4113,7 +4116,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="10" t="s">
@@ -4135,7 +4138,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="10" t="s">
@@ -4157,7 +4160,7 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="10" t="s">
@@ -4179,7 +4182,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="10" t="s">
@@ -4201,7 +4204,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="10" t="s">
@@ -4223,7 +4226,7 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="10" t="s">
@@ -4245,7 +4248,7 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="10" t="s">
@@ -4267,7 +4270,7 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="10" t="s">
@@ -4289,7 +4292,7 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="10" t="s">
@@ -4311,7 +4314,7 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="10" t="s">
@@ -4333,7 +4336,7 @@
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="10" t="s">
@@ -4355,7 +4358,7 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="10" t="s">
@@ -4377,7 +4380,7 @@
       <c r="I97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="10" t="s">
@@ -4399,7 +4402,7 @@
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="10" t="s">
@@ -4421,7 +4424,7 @@
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="10" t="s">
@@ -4443,7 +4446,7 @@
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="10" t="s">
@@ -4465,7 +4468,7 @@
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="10" t="s">
@@ -4487,7 +4490,7 @@
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" s="20"/>
       <c r="B103" s="20"/>
       <c r="C103" s="10" t="s">
@@ -4509,7 +4512,7 @@
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" s="20"/>
       <c r="B104" s="20"/>
       <c r="C104" s="9" t="s">
@@ -4531,7 +4534,7 @@
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="20"/>
       <c r="B105" s="20"/>
       <c r="C105" s="9" t="s">
@@ -4553,7 +4556,7 @@
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" s="20"/>
       <c r="B106" s="20"/>
       <c r="C106" s="9" t="s">
@@ -4575,7 +4578,7 @@
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="20"/>
       <c r="B107" s="20"/>
       <c r="C107" s="9" t="s">
@@ -4597,7 +4600,7 @@
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" s="20"/>
       <c r="B108" s="20"/>
       <c r="C108" s="9" t="s">
@@ -4619,7 +4622,7 @@
       <c r="I108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" s="20"/>
       <c r="B109" s="20"/>
       <c r="C109" s="9" t="s">
@@ -4641,7 +4644,7 @@
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" s="20"/>
       <c r="B110" s="20"/>
       <c r="C110" s="9" t="s">
@@ -4663,7 +4666,7 @@
       <c r="I110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>272</v>
@@ -4687,7 +4690,7 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" s="20"/>
       <c r="B112" s="20"/>
       <c r="C112" s="9" t="s">
@@ -4709,7 +4712,7 @@
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="20"/>
       <c r="B113" s="20"/>
       <c r="C113" s="9" t="s">
@@ -4731,7 +4734,7 @@
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" s="20"/>
       <c r="B114" s="20"/>
       <c r="C114" s="9" t="s">
@@ -4753,7 +4756,7 @@
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="20"/>
       <c r="B115" s="20"/>
       <c r="C115" s="9" t="s">
@@ -4775,7 +4778,7 @@
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="20"/>
       <c r="B116" s="20"/>
       <c r="C116" s="9" t="s">
@@ -4797,7 +4800,7 @@
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="20"/>
       <c r="B117" s="20"/>
       <c r="C117" s="9" t="s">
@@ -4819,7 +4822,7 @@
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" s="20"/>
       <c r="B118" s="20"/>
       <c r="C118" s="9" t="s">
@@ -4841,7 +4844,7 @@
       <c r="I118"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" s="20"/>
       <c r="B119" s="20"/>
       <c r="C119" s="9" t="s">
@@ -4863,7 +4866,7 @@
       <c r="I119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="20"/>
       <c r="B120" s="20"/>
       <c r="C120" s="9" t="s">
@@ -4885,7 +4888,7 @@
       <c r="I120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" s="20"/>
       <c r="B121" s="20"/>
       <c r="C121" s="9" t="s">
@@ -4907,7 +4910,7 @@
       <c r="I121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" s="20"/>
       <c r="B122" s="20"/>
       <c r="C122" s="9" t="s">
@@ -4929,7 +4932,7 @@
       <c r="I122"/>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" s="20"/>
       <c r="B123" s="20"/>
       <c r="C123" s="9" t="s">
@@ -4951,7 +4954,7 @@
       <c r="I123"/>
       <c r="J123"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="20"/>
       <c r="B124" s="20"/>
       <c r="C124" s="9" t="s">
@@ -4973,7 +4976,7 @@
       <c r="I124"/>
       <c r="J124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" s="20"/>
       <c r="B125" s="20"/>
       <c r="C125" s="9" t="s">
@@ -4995,7 +4998,7 @@
       <c r="I125"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" s="20"/>
       <c r="B126" s="20"/>
       <c r="C126" s="9" t="s">
@@ -5017,7 +5020,7 @@
       <c r="I126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" s="20"/>
       <c r="B127" s="20"/>
       <c r="C127" s="9" t="s">
@@ -5039,7 +5042,7 @@
       <c r="I127"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
       <c r="C128" s="9" t="s">
@@ -5061,7 +5064,7 @@
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10">
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="9" t="s">
@@ -5083,7 +5086,7 @@
       <c r="I129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="9" t="s">
@@ -5105,7 +5108,7 @@
       <c r="I130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" s="20"/>
       <c r="B131" s="20"/>
       <c r="C131" s="9" t="s">
@@ -5127,7 +5130,7 @@
       <c r="I131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="9" t="s">
@@ -5149,7 +5152,7 @@
       <c r="I132"/>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
       <c r="C133" s="9" t="s">
@@ -5171,7 +5174,7 @@
       <c r="I133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" s="20"/>
       <c r="B134" s="20"/>
       <c r="C134" s="9" t="s">
@@ -5193,7 +5196,7 @@
       <c r="I134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135" s="20"/>
       <c r="B135" s="20"/>
       <c r="C135" s="9" t="s">
@@ -5215,7 +5218,7 @@
       <c r="I135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" s="20"/>
       <c r="B136" s="7" t="s">
         <v>246</v>
@@ -5241,10 +5244,10 @@
       <c r="I136"/>
       <c r="J136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>288</v>
@@ -5265,7 +5268,7 @@
       <c r="I137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138" s="20"/>
       <c r="B138" s="20"/>
       <c r="C138" s="9" t="s">
@@ -5287,7 +5290,7 @@
       <c r="I138"/>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" s="20"/>
       <c r="B139" s="20"/>
       <c r="C139" s="9" t="s">
@@ -5309,7 +5312,7 @@
       <c r="I139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" s="20"/>
       <c r="B140" s="20"/>
       <c r="C140" s="9" t="s">
@@ -5331,7 +5334,7 @@
       <c r="I140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141" s="20"/>
       <c r="B141" s="20"/>
       <c r="C141" s="9" t="s">
@@ -5353,7 +5356,7 @@
       <c r="I141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" s="20"/>
       <c r="B142" s="20"/>
       <c r="C142" s="9" t="s">
@@ -5375,7 +5378,7 @@
       <c r="I142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" s="20"/>
       <c r="B143" s="20"/>
       <c r="C143" s="9" t="s">
@@ -5397,7 +5400,7 @@
       <c r="I143"/>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" s="20"/>
       <c r="B144" s="20"/>
       <c r="C144" s="9" t="s">
@@ -5419,7 +5422,7 @@
       <c r="I144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="20"/>
       <c r="B145" s="20"/>
       <c r="C145" s="9" t="s">
@@ -5429,7 +5432,7 @@
         <v>306</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>315</v>
@@ -5441,7 +5444,7 @@
       <c r="I145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="20"/>
       <c r="B146" s="20"/>
       <c r="C146" s="9" t="s">
@@ -5451,7 +5454,7 @@
         <v>307</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>315</v>
@@ -5463,7 +5466,7 @@
       <c r="I146"/>
       <c r="J146"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="19" t="s">
         <v>325</v>
       </c>
@@ -5477,17 +5480,17 @@
         <v>329</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="3" t="s">
@@ -5497,37 +5500,37 @@
         <v>330</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="3" t="s">
         <v>409</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="3" t="s">
@@ -5537,17 +5540,17 @@
         <v>333</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="3" t="s">
@@ -5557,17 +5560,17 @@
         <v>334</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" s="19"/>
       <c r="B152" s="19" t="s">
         <v>379</v>
@@ -5589,7 +5592,7 @@
       </c>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="18" t="s">
@@ -5609,7 +5612,7 @@
       </c>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="18" t="s">
@@ -5629,7 +5632,7 @@
       </c>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="18" t="s">
@@ -5649,7 +5652,7 @@
       </c>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="18" t="s">
@@ -5669,7 +5672,7 @@
       </c>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="18" t="s">
@@ -5689,7 +5692,7 @@
       </c>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" s="19"/>
       <c r="B158" s="19" t="s">
         <v>380</v>
@@ -5711,7 +5714,7 @@
       </c>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="12" t="s">
@@ -5731,7 +5734,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" s="19"/>
       <c r="B160" s="4" t="s">
         <v>381</v>
@@ -5740,7 +5743,7 @@
         <v>382</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>385</v>
@@ -5753,7 +5756,7 @@
       </c>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" s="19"/>
       <c r="B161" s="19" t="s">
         <v>405</v>
@@ -5775,7 +5778,7 @@
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="3" t="s">
@@ -5795,7 +5798,7 @@
       </c>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="3" t="s">
@@ -5815,7 +5818,7 @@
       </c>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="3" t="s">
@@ -5835,7 +5838,7 @@
       </c>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="3" t="s">
@@ -5855,7 +5858,7 @@
       </c>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="3" t="s">
@@ -5877,14 +5880,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B111:B135"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B73:B110"/>
     <mergeCell ref="B161:B166"/>
     <mergeCell ref="A147:A166"/>
     <mergeCell ref="A73:A146"/>
@@ -5901,6 +5896,14 @@
     <mergeCell ref="B137:B146"/>
     <mergeCell ref="B147:B151"/>
     <mergeCell ref="B152:B157"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B111:B135"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B73:B110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
